--- a/vendas.xlsx
+++ b/vendas.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasmin\Documents\Projetos\Automacao python\automacao_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D10E71ED-FFA6-4665-B253-F286E29AA30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1222102E-31E3-452B-827C-2C74D7EC83F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BD0991B-CD8E-49A2-8AEB-1E7888CDFA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Data</t>
   </si>
@@ -105,19 +107,40 @@
   </si>
   <si>
     <t>140.00</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>715.00</t>
+  </si>
+  <si>
+    <t>ID Venda</t>
+  </si>
+  <si>
+    <t>ID Vendedor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.6"/>
@@ -210,22 +233,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,134 +587,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC0C6A7-9E00-4DB8-AEE4-31B552D0358C}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="6" width="16.5703125" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45292</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45293</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>103</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45294</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45295</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45296</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45297</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>101</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45298</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45299</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>103</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45300</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>104</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45301</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5C6DD2-A1F3-4250-9014-24B7826C3F23}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>100</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>45293</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
-        <v>75</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>45294</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>45295</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4">
-        <v>120</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>45296</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
-        <v>200</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>45297</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4">
-        <v>80</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F5AF3B-7FBF-4DE9-BCF7-D50670B96FE5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
